--- a/CumulativeTestsByTypeByCounty/2021-12-07.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-12-07.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>77101</v>
+        <v>77138</v>
       </c>
       <c r="C2" s="4">
         <v>1944</v>
       </c>
       <c r="D2" s="4">
-        <v>33653</v>
+        <v>33761</v>
       </c>
       <c r="E2" s="4">
-        <v>112698</v>
+        <v>112843</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5567</v>
+        <v>5571</v>
       </c>
       <c r="C3" s="4">
         <v>319</v>
       </c>
       <c r="D3" s="4">
-        <v>5266</v>
+        <v>5375</v>
       </c>
       <c r="E3" s="4">
-        <v>11152</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>78466</v>
+        <v>78570</v>
       </c>
       <c r="C4" s="4">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="D4" s="4">
-        <v>71100</v>
+        <v>71564</v>
       </c>
       <c r="E4" s="4">
-        <v>153791</v>
+        <v>154360</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="C5" s="4">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D5" s="4">
-        <v>12726</v>
+        <v>12750</v>
       </c>
       <c r="E5" s="4">
-        <v>31014</v>
+        <v>31069</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="C6" s="4">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D6" s="4">
-        <v>1510</v>
+        <v>1525</v>
       </c>
       <c r="E6" s="4">
-        <v>6604</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C7" s="4">
         <v>326</v>
@@ -1165,7 +1165,7 @@
         <v>1344</v>
       </c>
       <c r="E7" s="4">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>102410</v>
+        <v>102588</v>
       </c>
       <c r="C8" s="4">
         <v>1424</v>
       </c>
       <c r="D8" s="4">
-        <v>13771</v>
+        <v>13820</v>
       </c>
       <c r="E8" s="4">
-        <v>117605</v>
+        <v>117832</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>28159</v>
+        <v>28200</v>
       </c>
       <c r="C9" s="4">
         <v>1828</v>
       </c>
       <c r="D9" s="4">
-        <v>5028</v>
+        <v>5086</v>
       </c>
       <c r="E9" s="4">
-        <v>35015</v>
+        <v>35114</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="C10" s="4">
         <v>93</v>
       </c>
       <c r="D10" s="4">
-        <v>1348</v>
+        <v>1420</v>
       </c>
       <c r="E10" s="4">
-        <v>3968</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>13845</v>
+        <v>13878</v>
       </c>
       <c r="C11" s="4">
         <v>761</v>
       </c>
       <c r="D11" s="4">
-        <v>8023</v>
+        <v>8037</v>
       </c>
       <c r="E11" s="4">
-        <v>22629</v>
+        <v>22676</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>91270</v>
+        <v>91434</v>
       </c>
       <c r="C12" s="4">
         <v>2207</v>
       </c>
       <c r="D12" s="4">
-        <v>40944</v>
+        <v>41024</v>
       </c>
       <c r="E12" s="4">
-        <v>134421</v>
+        <v>134665</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C13" s="4">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D13" s="4">
-        <v>3617</v>
+        <v>3659</v>
       </c>
       <c r="E13" s="4">
-        <v>6144</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>52038</v>
+        <v>52112</v>
       </c>
       <c r="C14" s="4">
         <v>7925</v>
       </c>
       <c r="D14" s="4">
-        <v>21196</v>
+        <v>21369</v>
       </c>
       <c r="E14" s="4">
-        <v>81159</v>
+        <v>81406</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>395436</v>
+        <v>396090</v>
       </c>
       <c r="C15" s="4">
-        <v>15342</v>
+        <v>15345</v>
       </c>
       <c r="D15" s="4">
-        <v>84233</v>
+        <v>84587</v>
       </c>
       <c r="E15" s="4">
-        <v>495011</v>
+        <v>496022</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4002733</v>
+        <v>4025350</v>
       </c>
       <c r="C16" s="4">
-        <v>71843</v>
+        <v>71852</v>
       </c>
       <c r="D16" s="4">
-        <v>571638</v>
+        <v>573942</v>
       </c>
       <c r="E16" s="4">
-        <v>4646214</v>
+        <v>4671144</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9048</v>
+        <v>9063</v>
       </c>
       <c r="C17" s="4">
         <v>460</v>
       </c>
       <c r="D17" s="4">
-        <v>3143</v>
+        <v>3159</v>
       </c>
       <c r="E17" s="4">
-        <v>12651</v>
+        <v>12682</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
@@ -1352,7 +1352,7 @@
         <v>111</v>
       </c>
       <c r="E18" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>11951</v>
+        <v>11965</v>
       </c>
       <c r="C19" s="4">
         <v>562</v>
       </c>
       <c r="D19" s="4">
-        <v>8797</v>
+        <v>8812</v>
       </c>
       <c r="E19" s="4">
-        <v>21310</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>87223</v>
+        <v>87290</v>
       </c>
       <c r="C20" s="4">
         <v>10531</v>
       </c>
       <c r="D20" s="4">
-        <v>33989</v>
+        <v>34064</v>
       </c>
       <c r="E20" s="4">
-        <v>131743</v>
+        <v>131885</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>545255</v>
+        <v>546093</v>
       </c>
       <c r="C21" s="4">
-        <v>25284</v>
+        <v>25294</v>
       </c>
       <c r="D21" s="4">
-        <v>107309</v>
+        <v>107626</v>
       </c>
       <c r="E21" s="4">
-        <v>677848</v>
+        <v>679013</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>423048</v>
+        <v>423422</v>
       </c>
       <c r="C22" s="4">
-        <v>11998</v>
+        <v>11999</v>
       </c>
       <c r="D22" s="4">
-        <v>48044</v>
+        <v>48172</v>
       </c>
       <c r="E22" s="4">
-        <v>483090</v>
+        <v>483593</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9290</v>
+        <v>9293</v>
       </c>
       <c r="C23" s="4">
         <v>171</v>
       </c>
       <c r="D23" s="4">
-        <v>3432</v>
+        <v>3438</v>
       </c>
       <c r="E23" s="4">
-        <v>12893</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C24" s="4">
         <v>141</v>
@@ -1454,7 +1454,7 @@
         <v>185</v>
       </c>
       <c r="E24" s="4">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25273</v>
+        <v>25286</v>
       </c>
       <c r="C25" s="4">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="D25" s="4">
-        <v>6553</v>
+        <v>6559</v>
       </c>
       <c r="E25" s="4">
-        <v>33657</v>
+        <v>33680</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>25674</v>
+        <v>25705</v>
       </c>
       <c r="C26" s="4">
         <v>1243</v>
       </c>
       <c r="D26" s="4">
-        <v>41068</v>
+        <v>41125</v>
       </c>
       <c r="E26" s="4">
-        <v>67985</v>
+        <v>68073</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>24847</v>
+        <v>24880</v>
       </c>
       <c r="C27" s="4">
         <v>788</v>
       </c>
       <c r="D27" s="4">
-        <v>6564</v>
+        <v>6602</v>
       </c>
       <c r="E27" s="4">
-        <v>32199</v>
+        <v>32270</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>56627</v>
+        <v>56696</v>
       </c>
       <c r="C28" s="4">
         <v>2097</v>
       </c>
       <c r="D28" s="4">
-        <v>12820</v>
+        <v>12896</v>
       </c>
       <c r="E28" s="4">
-        <v>71544</v>
+        <v>71689</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>56877</v>
+        <v>56966</v>
       </c>
       <c r="C29" s="4">
         <v>2108</v>
       </c>
       <c r="D29" s="4">
-        <v>17070</v>
+        <v>17107</v>
       </c>
       <c r="E29" s="4">
-        <v>76055</v>
+        <v>76181</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>19959</v>
+        <v>19979</v>
       </c>
       <c r="C30" s="4">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D30" s="4">
-        <v>13631</v>
+        <v>13649</v>
       </c>
       <c r="E30" s="4">
-        <v>35707</v>
+        <v>35747</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>6967</v>
+        <v>6975</v>
       </c>
       <c r="C31" s="4">
         <v>326</v>
       </c>
       <c r="D31" s="4">
-        <v>10743</v>
+        <v>10814</v>
       </c>
       <c r="E31" s="4">
-        <v>18036</v>
+        <v>18115</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>417006</v>
+        <v>417481</v>
       </c>
       <c r="C32" s="4">
         <v>10913</v>
       </c>
       <c r="D32" s="4">
-        <v>141908</v>
+        <v>142446</v>
       </c>
       <c r="E32" s="4">
-        <v>569827</v>
+        <v>570840</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9092</v>
+        <v>9106</v>
       </c>
       <c r="C33" s="4">
         <v>532</v>
       </c>
       <c r="D33" s="4">
-        <v>3849</v>
+        <v>3855</v>
       </c>
       <c r="E33" s="4">
-        <v>13473</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2769</v>
+        <v>2775</v>
       </c>
       <c r="C34" s="4">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D34" s="4">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="E34" s="4">
-        <v>5210</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18425</v>
+        <v>18438</v>
       </c>
       <c r="C35" s="4">
         <v>3345</v>
       </c>
       <c r="D35" s="4">
-        <v>11607</v>
+        <v>11637</v>
       </c>
       <c r="E35" s="4">
-        <v>33377</v>
+        <v>33420</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>7045</v>
+        <v>7132</v>
       </c>
       <c r="C36" s="4">
         <v>406</v>
       </c>
       <c r="D36" s="4">
-        <v>3334</v>
+        <v>3359</v>
       </c>
       <c r="E36" s="4">
-        <v>10785</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>13767</v>
+        <v>13779</v>
       </c>
       <c r="C37" s="4">
         <v>887</v>
       </c>
       <c r="D37" s="4">
-        <v>3305</v>
+        <v>3310</v>
       </c>
       <c r="E37" s="4">
-        <v>17959</v>
+        <v>17976</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>36767</v>
+        <v>36809</v>
       </c>
       <c r="C38" s="4">
         <v>1196</v>
       </c>
       <c r="D38" s="4">
-        <v>27678</v>
+        <v>27798</v>
       </c>
       <c r="E38" s="4">
-        <v>65641</v>
+        <v>65803</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>6332</v>
+        <v>6354</v>
       </c>
       <c r="C39" s="4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D39" s="4">
-        <v>6365</v>
+        <v>6368</v>
       </c>
       <c r="E39" s="4">
-        <v>13135</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6445</v>
+        <v>6450</v>
       </c>
       <c r="C40" s="4">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D40" s="4">
-        <v>4821</v>
+        <v>4850</v>
       </c>
       <c r="E40" s="4">
-        <v>11912</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1552</v>
+        <v>1559</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
@@ -1743,7 +1743,7 @@
         <v>432</v>
       </c>
       <c r="E41" s="4">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C42" s="4">
         <v>57</v>
       </c>
       <c r="D42" s="4">
-        <v>3284</v>
+        <v>3290</v>
       </c>
       <c r="E42" s="4">
-        <v>6243</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="C43" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="4">
-        <v>4896</v>
+        <v>4910</v>
       </c>
       <c r="E43" s="4">
-        <v>9398</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1509860</v>
+        <v>1512465</v>
       </c>
       <c r="C44" s="4">
-        <v>107320</v>
+        <v>107376</v>
       </c>
       <c r="D44" s="4">
-        <v>274225</v>
+        <v>275508</v>
       </c>
       <c r="E44" s="4">
-        <v>1891405</v>
+        <v>1895349</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1808,10 +1808,10 @@
         <v>119</v>
       </c>
       <c r="D45" s="4">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="E45" s="4">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>18180</v>
+        <v>18194</v>
       </c>
       <c r="C46" s="4">
         <v>1199</v>
       </c>
       <c r="D46" s="4">
-        <v>9242</v>
+        <v>9259</v>
       </c>
       <c r="E46" s="4">
-        <v>28621</v>
+        <v>28652</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>179660</v>
+        <v>180098</v>
       </c>
       <c r="C47" s="4">
-        <v>11693</v>
+        <v>11698</v>
       </c>
       <c r="D47" s="4">
-        <v>49236</v>
+        <v>49352</v>
       </c>
       <c r="E47" s="4">
-        <v>240589</v>
+        <v>241148</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10645</v>
+        <v>10663</v>
       </c>
       <c r="C48" s="4">
         <v>364</v>
       </c>
       <c r="D48" s="4">
-        <v>5651</v>
+        <v>5656</v>
       </c>
       <c r="E48" s="4">
-        <v>16660</v>
+        <v>16683</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C49" s="4">
         <v>35</v>
       </c>
       <c r="D49" s="4">
-        <v>3888</v>
+        <v>3894</v>
       </c>
       <c r="E49" s="4">
-        <v>6062</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>31481</v>
+        <v>31519</v>
       </c>
       <c r="C50" s="4">
         <v>2131</v>
       </c>
       <c r="D50" s="4">
-        <v>11663</v>
+        <v>11685</v>
       </c>
       <c r="E50" s="4">
-        <v>45275</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>132182</v>
+        <v>132265</v>
       </c>
       <c r="C51" s="4">
         <v>2420</v>
       </c>
       <c r="D51" s="4">
-        <v>24318</v>
+        <v>24383</v>
       </c>
       <c r="E51" s="4">
-        <v>158920</v>
+        <v>159068</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="C52" s="4">
         <v>69</v>
       </c>
       <c r="D52" s="4">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E52" s="4">
-        <v>2246</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4906</v>
+        <v>4910</v>
       </c>
       <c r="C53" s="4">
         <v>95</v>
       </c>
       <c r="D53" s="4">
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="E53" s="4">
-        <v>8801</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4285</v>
+        <v>4298</v>
       </c>
       <c r="E54" s="4">
-        <v>5482</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="C55" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="4">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="E55" s="4">
-        <v>6883</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1995,10 +1995,10 @@
         <v>40</v>
       </c>
       <c r="D56" s="4">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E56" s="4">
-        <v>3184</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C57" s="4">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D57" s="4">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="E57" s="4">
-        <v>7407</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3686587</v>
+        <v>3693189</v>
       </c>
       <c r="C58" s="4">
-        <v>162158</v>
+        <v>162213</v>
       </c>
       <c r="D58" s="4">
-        <v>554404</v>
+        <v>556936</v>
       </c>
       <c r="E58" s="4">
-        <v>4403149</v>
+        <v>4412338</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11621</v>
+        <v>11623</v>
       </c>
       <c r="C59" s="4">
         <v>583</v>
       </c>
       <c r="D59" s="4">
-        <v>4984</v>
+        <v>5006</v>
       </c>
       <c r="E59" s="4">
-        <v>17188</v>
+        <v>17212</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>14885</v>
+        <v>14898</v>
       </c>
       <c r="C60" s="4">
         <v>555</v>
       </c>
       <c r="D60" s="4">
-        <v>6968</v>
+        <v>6971</v>
       </c>
       <c r="E60" s="4">
-        <v>22408</v>
+        <v>22424</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7330</v>
+        <v>7354</v>
       </c>
       <c r="C61" s="4">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D61" s="4">
-        <v>5444</v>
+        <v>5458</v>
       </c>
       <c r="E61" s="4">
-        <v>13968</v>
+        <v>14007</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2951</v>
+        <v>2957</v>
       </c>
       <c r="C62" s="4">
         <v>259</v>
       </c>
       <c r="D62" s="4">
-        <v>2661</v>
+        <v>2667</v>
       </c>
       <c r="E62" s="4">
-        <v>5871</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>905069</v>
+        <v>906792</v>
       </c>
       <c r="C63" s="4">
-        <v>79345</v>
+        <v>79418</v>
       </c>
       <c r="D63" s="4">
-        <v>232334</v>
+        <v>233704</v>
       </c>
       <c r="E63" s="4">
-        <v>1216748</v>
+        <v>1219914</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E64" s="4">
-        <v>1713</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>26744</v>
+        <v>26831</v>
       </c>
       <c r="C65" s="4">
         <v>128</v>
       </c>
       <c r="D65" s="4">
-        <v>40520</v>
+        <v>40636</v>
       </c>
       <c r="E65" s="4">
-        <v>67392</v>
+        <v>67595</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="C66" s="4">
         <v>490</v>
       </c>
       <c r="D66" s="4">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E66" s="4">
-        <v>4549</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23656</v>
+        <v>23668</v>
       </c>
       <c r="C67" s="4">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="D67" s="4">
-        <v>11433</v>
+        <v>11459</v>
       </c>
       <c r="E67" s="4">
-        <v>38443</v>
+        <v>38485</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7312</v>
+        <v>7335</v>
       </c>
       <c r="C68" s="4">
         <v>508</v>
       </c>
       <c r="D68" s="4">
-        <v>8434</v>
+        <v>8484</v>
       </c>
       <c r="E68" s="4">
-        <v>16254</v>
+        <v>16327</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>88301</v>
+        <v>88454</v>
       </c>
       <c r="C69" s="4">
-        <v>6269</v>
+        <v>6270</v>
       </c>
       <c r="D69" s="4">
-        <v>55121</v>
+        <v>55533</v>
       </c>
       <c r="E69" s="4">
-        <v>149691</v>
+        <v>150257</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C70" s="4">
         <v>41</v>
       </c>
       <c r="D70" s="4">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E70" s="4">
-        <v>2321</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1210812</v>
+        <v>1213061</v>
       </c>
       <c r="C71" s="4">
-        <v>22598</v>
+        <v>22601</v>
       </c>
       <c r="D71" s="4">
-        <v>584178</v>
+        <v>586209</v>
       </c>
       <c r="E71" s="4">
-        <v>1817588</v>
+        <v>1821871</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>245126</v>
+        <v>245490</v>
       </c>
       <c r="C72" s="4">
         <v>9229</v>
       </c>
       <c r="D72" s="4">
-        <v>50316</v>
+        <v>50561</v>
       </c>
       <c r="E72" s="4">
-        <v>304671</v>
+        <v>305280</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>31475</v>
+        <v>31563</v>
       </c>
       <c r="C73" s="4">
         <v>1834</v>
       </c>
       <c r="D73" s="4">
-        <v>13963</v>
+        <v>13979</v>
       </c>
       <c r="E73" s="4">
-        <v>47272</v>
+        <v>47376</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>17994</v>
+        <v>17999</v>
       </c>
       <c r="C74" s="4">
         <v>471</v>
       </c>
       <c r="D74" s="4">
-        <v>8402</v>
+        <v>8428</v>
       </c>
       <c r="E74" s="4">
-        <v>26867</v>
+        <v>26898</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>43206</v>
+        <v>43262</v>
       </c>
       <c r="C75" s="4">
         <v>1092</v>
       </c>
       <c r="D75" s="4">
-        <v>11109</v>
+        <v>11132</v>
       </c>
       <c r="E75" s="4">
-        <v>55407</v>
+        <v>55486</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>22098</v>
+        <v>22120</v>
       </c>
       <c r="C76" s="4">
         <v>941</v>
       </c>
       <c r="D76" s="4">
-        <v>6644</v>
+        <v>6667</v>
       </c>
       <c r="E76" s="4">
-        <v>29683</v>
+        <v>29728</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C77" s="4">
         <v>42</v>
       </c>
       <c r="D77" s="4">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E77" s="4">
-        <v>2446</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4478</v>
+        <v>4497</v>
       </c>
       <c r="C78" s="4">
         <v>172</v>
       </c>
       <c r="D78" s="4">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E78" s="4">
-        <v>5440</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>139</v>
       </c>
       <c r="D79" s="4">
-        <v>1505</v>
+        <v>1520</v>
       </c>
       <c r="E79" s="4">
-        <v>2336</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1099757</v>
+        <v>1101547</v>
       </c>
       <c r="C80" s="4">
-        <v>49231</v>
+        <v>49251</v>
       </c>
       <c r="D80" s="4">
-        <v>151640</v>
+        <v>152616</v>
       </c>
       <c r="E80" s="4">
-        <v>1300628</v>
+        <v>1303414</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>6834</v>
+        <v>6842</v>
       </c>
       <c r="C81" s="4">
         <v>581</v>
       </c>
       <c r="D81" s="4">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="E81" s="4">
-        <v>9149</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>22764</v>
+        <v>22829</v>
       </c>
       <c r="C82" s="4">
         <v>809</v>
       </c>
       <c r="D82" s="4">
-        <v>17892</v>
+        <v>17954</v>
       </c>
       <c r="E82" s="4">
-        <v>41465</v>
+        <v>41592</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>31674</v>
+        <v>31731</v>
       </c>
       <c r="C83" s="4">
         <v>574</v>
       </c>
       <c r="D83" s="4">
-        <v>9041</v>
+        <v>9065</v>
       </c>
       <c r="E83" s="4">
-        <v>41289</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5076</v>
+        <v>5081</v>
       </c>
       <c r="C84" s="4">
         <v>304</v>
       </c>
       <c r="D84" s="4">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="E84" s="4">
-        <v>7406</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>586577</v>
+        <v>587492</v>
       </c>
       <c r="C85" s="4">
-        <v>25444</v>
+        <v>25448</v>
       </c>
       <c r="D85" s="4">
-        <v>87510</v>
+        <v>88165</v>
       </c>
       <c r="E85" s="4">
-        <v>699531</v>
+        <v>701105</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="C86" s="4">
         <v>69</v>
       </c>
       <c r="D86" s="4">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E86" s="4">
-        <v>5635</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>21069</v>
+        <v>21142</v>
       </c>
       <c r="C87" s="4">
         <v>930</v>
       </c>
       <c r="D87" s="4">
-        <v>10171</v>
+        <v>10185</v>
       </c>
       <c r="E87" s="4">
-        <v>32170</v>
+        <v>32257</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C88" s="4">
         <v>53</v>
@@ -2542,7 +2542,7 @@
         <v>191</v>
       </c>
       <c r="E88" s="4">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4528</v>
+        <v>4531</v>
       </c>
       <c r="C89" s="4">
         <v>312</v>
       </c>
       <c r="D89" s="4">
-        <v>3691</v>
+        <v>3697</v>
       </c>
       <c r="E89" s="4">
-        <v>8531</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>16906</v>
+        <v>16915</v>
       </c>
       <c r="C90" s="4">
         <v>491</v>
       </c>
       <c r="D90" s="4">
-        <v>10062</v>
+        <v>10072</v>
       </c>
       <c r="E90" s="4">
-        <v>27459</v>
+        <v>27478</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>12358</v>
+        <v>12374</v>
       </c>
       <c r="C91" s="4">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="D91" s="4">
-        <v>9709</v>
+        <v>9749</v>
       </c>
       <c r="E91" s="4">
-        <v>23316</v>
+        <v>23377</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>161335</v>
+        <v>161453</v>
       </c>
       <c r="C92" s="4">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="D92" s="4">
-        <v>42861</v>
+        <v>42950</v>
       </c>
       <c r="E92" s="4">
-        <v>210078</v>
+        <v>210287</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>77836</v>
+        <v>77896</v>
       </c>
       <c r="C93" s="4">
-        <v>11938</v>
+        <v>11944</v>
       </c>
       <c r="D93" s="4">
-        <v>41926</v>
+        <v>41982</v>
       </c>
       <c r="E93" s="4">
-        <v>131700</v>
+        <v>131822</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>55308</v>
+        <v>55356</v>
       </c>
       <c r="C94" s="4">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D94" s="4">
-        <v>12717</v>
+        <v>12996</v>
       </c>
       <c r="E94" s="4">
-        <v>69456</v>
+        <v>69784</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>143069</v>
+        <v>143462</v>
       </c>
       <c r="C95" s="4">
-        <v>5722</v>
+        <v>5725</v>
       </c>
       <c r="D95" s="4">
-        <v>43991</v>
+        <v>44121</v>
       </c>
       <c r="E95" s="4">
-        <v>192782</v>
+        <v>193308</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>29262</v>
+        <v>29297</v>
       </c>
       <c r="C96" s="4">
         <v>512</v>
       </c>
       <c r="D96" s="4">
-        <v>7224</v>
+        <v>7256</v>
       </c>
       <c r="E96" s="4">
-        <v>36998</v>
+        <v>37065</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="C97" s="4">
         <v>77</v>
       </c>
       <c r="D97" s="4">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="E97" s="4">
-        <v>4907</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>10190</v>
+        <v>10198</v>
       </c>
       <c r="C98" s="4">
         <v>447</v>
       </c>
       <c r="D98" s="4">
-        <v>3828</v>
+        <v>3832</v>
       </c>
       <c r="E98" s="4">
-        <v>14465</v>
+        <v>14477</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="C99" s="4">
         <v>816</v>
       </c>
       <c r="D99" s="4">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E99" s="4">
-        <v>6012</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="C100" s="4">
         <v>312</v>
       </c>
       <c r="D100" s="4">
-        <v>2897</v>
+        <v>2931</v>
       </c>
       <c r="E100" s="4">
-        <v>5553</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>40271</v>
+        <v>40317</v>
       </c>
       <c r="C101" s="4">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="D101" s="4">
-        <v>23073</v>
+        <v>23130</v>
       </c>
       <c r="E101" s="4">
-        <v>67637</v>
+        <v>67741</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>6715838</v>
+        <v>6726649</v>
       </c>
       <c r="C102" s="4">
-        <v>269952</v>
+        <v>270215</v>
       </c>
       <c r="D102" s="4">
-        <v>986463</v>
+        <v>990227</v>
       </c>
       <c r="E102" s="4">
-        <v>7972253</v>
+        <v>7987091</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>82353</v>
+        <v>82411</v>
       </c>
       <c r="C103" s="4">
-        <v>9025</v>
+        <v>9031</v>
       </c>
       <c r="D103" s="4">
-        <v>28861</v>
+        <v>28913</v>
       </c>
       <c r="E103" s="4">
-        <v>120239</v>
+        <v>120355</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C105" s="4">
         <v>42</v>
       </c>
       <c r="D105" s="4">
-        <v>3012</v>
+        <v>3023</v>
       </c>
       <c r="E105" s="4">
-        <v>4917</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>419091</v>
+        <v>419720</v>
       </c>
       <c r="C106" s="4">
-        <v>15474</v>
+        <v>15481</v>
       </c>
       <c r="D106" s="4">
-        <v>55038</v>
+        <v>55244</v>
       </c>
       <c r="E106" s="4">
-        <v>489603</v>
+        <v>490445</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>45410</v>
+        <v>45487</v>
       </c>
       <c r="C108" s="4">
         <v>3099</v>
       </c>
       <c r="D108" s="4">
-        <v>27043</v>
+        <v>27123</v>
       </c>
       <c r="E108" s="4">
-        <v>75552</v>
+        <v>75709</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>763521</v>
+        <v>764298</v>
       </c>
       <c r="C109" s="4">
-        <v>20784</v>
+        <v>20786</v>
       </c>
       <c r="D109" s="4">
-        <v>379728</v>
+        <v>380522</v>
       </c>
       <c r="E109" s="4">
-        <v>1164033</v>
+        <v>1165606</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>40701</v>
+        <v>40723</v>
       </c>
       <c r="C110" s="4">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D110" s="4">
-        <v>16563</v>
+        <v>16637</v>
       </c>
       <c r="E110" s="4">
-        <v>58481</v>
+        <v>58578</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>15742</v>
+        <v>15806</v>
       </c>
       <c r="C111" s="4">
         <v>249</v>
       </c>
       <c r="D111" s="4">
-        <v>5989</v>
+        <v>5999</v>
       </c>
       <c r="E111" s="4">
-        <v>21980</v>
+        <v>22054</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>52210</v>
+        <v>52323</v>
       </c>
       <c r="C112" s="4">
         <v>3151</v>
       </c>
       <c r="D112" s="4">
-        <v>41202</v>
+        <v>41262</v>
       </c>
       <c r="E112" s="4">
-        <v>96563</v>
+        <v>96736</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>25970</v>
+        <v>26019</v>
       </c>
       <c r="C113" s="4">
         <v>2111</v>
       </c>
       <c r="D113" s="4">
-        <v>11735</v>
+        <v>11759</v>
       </c>
       <c r="E113" s="4">
-        <v>39816</v>
+        <v>39889</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20685</v>
+        <v>20694</v>
       </c>
       <c r="C114" s="4">
         <v>675</v>
       </c>
       <c r="D114" s="4">
-        <v>9800</v>
+        <v>9838</v>
       </c>
       <c r="E114" s="4">
-        <v>31160</v>
+        <v>31207</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22297</v>
+        <v>22302</v>
       </c>
       <c r="C115" s="4">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D115" s="4">
-        <v>14866</v>
+        <v>15159</v>
       </c>
       <c r="E115" s="4">
-        <v>38077</v>
+        <v>38376</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="C116" s="4">
         <v>50</v>
       </c>
       <c r="D116" s="4">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="E116" s="4">
-        <v>5007</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>123944</v>
+        <v>124174</v>
       </c>
       <c r="C117" s="4">
-        <v>4992</v>
+        <v>4996</v>
       </c>
       <c r="D117" s="4">
-        <v>41881</v>
+        <v>41993</v>
       </c>
       <c r="E117" s="4">
-        <v>170817</v>
+        <v>171163</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>12454</v>
+        <v>12473</v>
       </c>
       <c r="C118" s="4">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D118" s="4">
-        <v>9494</v>
+        <v>9506</v>
       </c>
       <c r="E118" s="4">
-        <v>23717</v>
+        <v>23749</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>24</v>
       </c>
       <c r="D119" s="4">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E119" s="4">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4431</v>
+        <v>4435</v>
       </c>
       <c r="C120" s="4">
         <v>270</v>
       </c>
       <c r="D120" s="4">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="E120" s="4">
-        <v>6434</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10555</v>
+        <v>10575</v>
       </c>
       <c r="C121" s="4">
         <v>497</v>
       </c>
       <c r="D121" s="4">
-        <v>5368</v>
+        <v>5373</v>
       </c>
       <c r="E121" s="4">
-        <v>16420</v>
+        <v>16445</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>26623</v>
+        <v>26650</v>
       </c>
       <c r="C122" s="4">
         <v>3012</v>
       </c>
       <c r="D122" s="4">
-        <v>14198</v>
+        <v>14218</v>
       </c>
       <c r="E122" s="4">
-        <v>43833</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,7 +3128,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C123" s="4">
         <v>56</v>
@@ -3137,7 +3137,7 @@
         <v>362</v>
       </c>
       <c r="E123" s="4">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>227868</v>
+        <v>228100</v>
       </c>
       <c r="C124" s="4">
-        <v>15903</v>
+        <v>15911</v>
       </c>
       <c r="D124" s="4">
-        <v>94800</v>
+        <v>95092</v>
       </c>
       <c r="E124" s="4">
-        <v>338571</v>
+        <v>339103</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14969</v>
+        <v>14970</v>
       </c>
       <c r="C125" s="4">
         <v>757</v>
       </c>
       <c r="D125" s="4">
-        <v>14017</v>
+        <v>14190</v>
       </c>
       <c r="E125" s="4">
-        <v>29743</v>
+        <v>29917</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>74704</v>
+        <v>74803</v>
       </c>
       <c r="C126" s="4">
-        <v>10785</v>
+        <v>10797</v>
       </c>
       <c r="D126" s="4">
-        <v>33280</v>
+        <v>33333</v>
       </c>
       <c r="E126" s="4">
-        <v>118769</v>
+        <v>118933</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>184744</v>
+        <v>185147</v>
       </c>
       <c r="C127" s="4">
-        <v>8853</v>
+        <v>8860</v>
       </c>
       <c r="D127" s="4">
-        <v>44175</v>
+        <v>44373</v>
       </c>
       <c r="E127" s="4">
-        <v>237772</v>
+        <v>238380</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10498</v>
+        <v>10504</v>
       </c>
       <c r="C128" s="4">
         <v>234</v>
       </c>
       <c r="D128" s="4">
-        <v>8117</v>
+        <v>8174</v>
       </c>
       <c r="E128" s="4">
-        <v>18849</v>
+        <v>18912</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21479</v>
+        <v>21516</v>
       </c>
       <c r="C129" s="4">
         <v>568</v>
       </c>
       <c r="D129" s="4">
-        <v>12234</v>
+        <v>12253</v>
       </c>
       <c r="E129" s="4">
-        <v>34281</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>164964</v>
+        <v>165260</v>
       </c>
       <c r="C130" s="4">
-        <v>6969</v>
+        <v>6973</v>
       </c>
       <c r="D130" s="4">
-        <v>48914</v>
+        <v>49053</v>
       </c>
       <c r="E130" s="4">
-        <v>220847</v>
+        <v>221286</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>40965</v>
+        <v>41080</v>
       </c>
       <c r="C131" s="4">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="D131" s="4">
-        <v>20105</v>
+        <v>20155</v>
       </c>
       <c r="E131" s="4">
-        <v>63656</v>
+        <v>63823</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1080</v>
+        <v>1198</v>
       </c>
       <c r="E133" s="4">
-        <v>1387</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>44921</v>
+        <v>45000</v>
       </c>
       <c r="C134" s="4">
         <v>1737</v>
       </c>
       <c r="D134" s="4">
-        <v>41602</v>
+        <v>41629</v>
       </c>
       <c r="E134" s="4">
-        <v>88260</v>
+        <v>88366</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="C135" s="4">
         <v>62</v>
       </c>
       <c r="D135" s="4">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E135" s="4">
-        <v>3497</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="C137" s="4">
         <v>57</v>
       </c>
       <c r="D137" s="4">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E137" s="4">
-        <v>3978</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>37618</v>
+        <v>37630</v>
       </c>
       <c r="C138" s="4">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="D138" s="4">
-        <v>16595</v>
+        <v>16638</v>
       </c>
       <c r="E138" s="4">
-        <v>59635</v>
+        <v>59691</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C139" s="4">
         <v>53</v>
       </c>
       <c r="D139" s="4">
-        <v>5417</v>
+        <v>5431</v>
       </c>
       <c r="E139" s="4">
-        <v>6591</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>11596</v>
+        <v>11606</v>
       </c>
       <c r="C140" s="4">
         <v>324</v>
       </c>
       <c r="D140" s="4">
-        <v>3949</v>
+        <v>3956</v>
       </c>
       <c r="E140" s="4">
-        <v>15869</v>
+        <v>15886</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>29912</v>
+        <v>29951</v>
       </c>
       <c r="C141" s="4">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="D141" s="4">
-        <v>18102</v>
+        <v>18148</v>
       </c>
       <c r="E141" s="4">
-        <v>50920</v>
+        <v>51007</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8449</v>
+        <v>8458</v>
       </c>
       <c r="C142" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D142" s="4">
-        <v>8754</v>
+        <v>8780</v>
       </c>
       <c r="E142" s="4">
-        <v>17370</v>
+        <v>17407</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>27479</v>
+        <v>27496</v>
       </c>
       <c r="C143" s="4">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D143" s="4">
-        <v>7742</v>
+        <v>7749</v>
       </c>
       <c r="E143" s="4">
-        <v>35970</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>17940</v>
+        <v>17956</v>
       </c>
       <c r="C144" s="4">
         <v>1207</v>
       </c>
       <c r="D144" s="4">
-        <v>11678</v>
+        <v>11698</v>
       </c>
       <c r="E144" s="4">
-        <v>30825</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12321</v>
+        <v>12337</v>
       </c>
       <c r="C145" s="4">
         <v>423</v>
       </c>
       <c r="D145" s="4">
-        <v>6043</v>
+        <v>6067</v>
       </c>
       <c r="E145" s="4">
-        <v>18787</v>
+        <v>18827</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>15743</v>
+        <v>15756</v>
       </c>
       <c r="C146" s="4">
         <v>829</v>
       </c>
       <c r="D146" s="4">
-        <v>6464</v>
+        <v>6474</v>
       </c>
       <c r="E146" s="4">
-        <v>23036</v>
+        <v>23059</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>87282</v>
+        <v>87384</v>
       </c>
       <c r="C147" s="4">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="D147" s="4">
-        <v>22195</v>
+        <v>22298</v>
       </c>
       <c r="E147" s="4">
-        <v>114146</v>
+        <v>114352</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>38220</v>
+        <v>38244</v>
       </c>
       <c r="C148" s="4">
         <v>752</v>
       </c>
       <c r="D148" s="4">
-        <v>31459</v>
+        <v>31576</v>
       </c>
       <c r="E148" s="4">
-        <v>70431</v>
+        <v>70572</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C149" s="4">
         <v>284</v>
       </c>
       <c r="D149" s="4">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="E149" s="4">
-        <v>1458</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9024</v>
+        <v>9038</v>
       </c>
       <c r="C150" s="4">
         <v>1315</v>
       </c>
       <c r="D150" s="4">
-        <v>6036</v>
+        <v>6062</v>
       </c>
       <c r="E150" s="4">
-        <v>16375</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>17925</v>
+        <v>17946</v>
       </c>
       <c r="C151" s="4">
         <v>562</v>
       </c>
       <c r="D151" s="4">
-        <v>4413</v>
+        <v>4428</v>
       </c>
       <c r="E151" s="4">
-        <v>22900</v>
+        <v>22936</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C152" s="4">
         <v>4</v>
       </c>
       <c r="D152" s="4">
-        <v>2609</v>
+        <v>2782</v>
       </c>
       <c r="E152" s="4">
-        <v>2707</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>315978</v>
+        <v>316426</v>
       </c>
       <c r="C153" s="4">
-        <v>11223</v>
+        <v>11227</v>
       </c>
       <c r="D153" s="4">
-        <v>157839</v>
+        <v>158201</v>
       </c>
       <c r="E153" s="4">
-        <v>485040</v>
+        <v>485854</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C154" s="4">
         <v>166</v>
       </c>
       <c r="D154" s="4">
-        <v>4002</v>
+        <v>4006</v>
       </c>
       <c r="E154" s="4">
-        <v>8215</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>19065</v>
+        <v>19081</v>
       </c>
       <c r="C155" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D155" s="4">
-        <v>5485</v>
+        <v>5499</v>
       </c>
       <c r="E155" s="4">
-        <v>24952</v>
+        <v>24983</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3922</v>
+        <v>3925</v>
       </c>
       <c r="C156" s="4">
         <v>863</v>
       </c>
       <c r="D156" s="4">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="E156" s="4">
-        <v>8370</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C157" s="4">
         <v>250</v>
       </c>
       <c r="D157" s="4">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="E157" s="4">
-        <v>3330</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2440</v>
+        <v>2446</v>
       </c>
       <c r="C158" s="4">
         <v>106</v>
       </c>
       <c r="D158" s="4">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="E158" s="4">
-        <v>4229</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>46912</v>
+        <v>46974</v>
       </c>
       <c r="C159" s="4">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D159" s="4">
-        <v>7371</v>
+        <v>7389</v>
       </c>
       <c r="E159" s="4">
-        <v>56223</v>
+        <v>56304</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>83655</v>
+        <v>83725</v>
       </c>
       <c r="C160" s="4">
         <v>514</v>
       </c>
       <c r="D160" s="4">
-        <v>22025</v>
+        <v>22044</v>
       </c>
       <c r="E160" s="4">
-        <v>106194</v>
+        <v>106283</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="C161" s="4">
         <v>89</v>
       </c>
       <c r="D161" s="4">
-        <v>3781</v>
+        <v>3788</v>
       </c>
       <c r="E161" s="4">
-        <v>7291</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>401084</v>
+        <v>401535</v>
       </c>
       <c r="C162" s="4">
-        <v>12399</v>
+        <v>12405</v>
       </c>
       <c r="D162" s="4">
-        <v>137971</v>
+        <v>138405</v>
       </c>
       <c r="E162" s="4">
-        <v>551454</v>
+        <v>552345</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C163" s="4">
         <v>61</v>
@@ -3817,7 +3817,7 @@
         <v>149</v>
       </c>
       <c r="E163" s="4">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>47741</v>
+        <v>47844</v>
       </c>
       <c r="C164" s="4">
         <v>1628</v>
       </c>
       <c r="D164" s="4">
-        <v>14020</v>
+        <v>14043</v>
       </c>
       <c r="E164" s="4">
-        <v>63389</v>
+        <v>63515</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3848,10 +3848,10 @@
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1919</v>
+        <v>1925</v>
       </c>
       <c r="E165" s="4">
-        <v>4342</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>76884</v>
+        <v>77053</v>
       </c>
       <c r="C166" s="4">
-        <v>10542</v>
+        <v>10551</v>
       </c>
       <c r="D166" s="4">
-        <v>79243</v>
+        <v>79585</v>
       </c>
       <c r="E166" s="4">
-        <v>166669</v>
+        <v>167189</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>24573</v>
+        <v>24608</v>
       </c>
       <c r="C167" s="4">
         <v>1255</v>
       </c>
       <c r="D167" s="4">
-        <v>12570</v>
+        <v>12576</v>
       </c>
       <c r="E167" s="4">
-        <v>38398</v>
+        <v>38439</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>7599</v>
+        <v>7601</v>
       </c>
       <c r="C168" s="4">
         <v>128</v>
@@ -3902,7 +3902,7 @@
         <v>2620</v>
       </c>
       <c r="E168" s="4">
-        <v>10347</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8660</v>
+        <v>8666</v>
       </c>
       <c r="C169" s="4">
         <v>80</v>
       </c>
       <c r="D169" s="4">
-        <v>6002</v>
+        <v>6101</v>
       </c>
       <c r="E169" s="4">
-        <v>14742</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>17326</v>
+        <v>17334</v>
       </c>
       <c r="C170" s="4">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="D170" s="4">
-        <v>8194</v>
+        <v>8204</v>
       </c>
       <c r="E170" s="4">
-        <v>26762</v>
+        <v>26783</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>645040</v>
+        <v>646216</v>
       </c>
       <c r="C171" s="4">
-        <v>46450</v>
+        <v>46456</v>
       </c>
       <c r="D171" s="4">
-        <v>135629</v>
+        <v>136132</v>
       </c>
       <c r="E171" s="4">
-        <v>827119</v>
+        <v>828804</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10406</v>
+        <v>10411</v>
       </c>
       <c r="C172" s="4">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="D172" s="4">
-        <v>5644</v>
+        <v>5684</v>
       </c>
       <c r="E172" s="4">
-        <v>17217</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>8835</v>
+        <v>8851</v>
       </c>
       <c r="C173" s="4">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D173" s="4">
-        <v>8050</v>
+        <v>8052</v>
       </c>
       <c r="E173" s="4">
-        <v>17688</v>
+        <v>17707</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E174" s="4">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>60618</v>
+        <v>60716</v>
       </c>
       <c r="C175" s="4">
         <v>4128</v>
       </c>
       <c r="D175" s="4">
-        <v>20594</v>
+        <v>20684</v>
       </c>
       <c r="E175" s="4">
-        <v>85340</v>
+        <v>85528</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>39677</v>
+        <v>39706</v>
       </c>
       <c r="C176" s="4">
         <v>1960</v>
       </c>
       <c r="D176" s="4">
-        <v>27935</v>
+        <v>28005</v>
       </c>
       <c r="E176" s="4">
-        <v>69572</v>
+        <v>69671</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6732</v>
+        <v>6742</v>
       </c>
       <c r="C177" s="4">
         <v>893</v>
       </c>
       <c r="D177" s="4">
-        <v>4888</v>
+        <v>4893</v>
       </c>
       <c r="E177" s="4">
-        <v>12513</v>
+        <v>12528</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10018</v>
+        <v>10023</v>
       </c>
       <c r="C178" s="4">
         <v>223</v>
       </c>
       <c r="D178" s="4">
-        <v>7152</v>
+        <v>7166</v>
       </c>
       <c r="E178" s="4">
-        <v>17393</v>
+        <v>17412</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>335571</v>
+        <v>336006</v>
       </c>
       <c r="C179" s="4">
-        <v>51886</v>
+        <v>51898</v>
       </c>
       <c r="D179" s="4">
-        <v>153888</v>
+        <v>154723</v>
       </c>
       <c r="E179" s="4">
-        <v>541345</v>
+        <v>542627</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="C180" s="4">
         <v>376</v>
       </c>
       <c r="D180" s="4">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="E180" s="4">
-        <v>2874</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C181" s="4">
         <v>384</v>
       </c>
       <c r="D181" s="4">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E181" s="4">
-        <v>2682</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>50685</v>
+        <v>50751</v>
       </c>
       <c r="C182" s="4">
         <v>6930</v>
       </c>
       <c r="D182" s="4">
-        <v>25695</v>
+        <v>25768</v>
       </c>
       <c r="E182" s="4">
-        <v>83310</v>
+        <v>83449</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>23000</v>
+        <v>23051</v>
       </c>
       <c r="C183" s="4">
         <v>1094</v>
       </c>
       <c r="D183" s="4">
-        <v>12348</v>
+        <v>12362</v>
       </c>
       <c r="E183" s="4">
-        <v>36442</v>
+        <v>36507</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14097</v>
+        <v>14162</v>
       </c>
       <c r="C184" s="4">
         <v>1313</v>
       </c>
       <c r="D184" s="4">
-        <v>8249</v>
+        <v>8276</v>
       </c>
       <c r="E184" s="4">
-        <v>23659</v>
+        <v>23751</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>124968</v>
+        <v>125294</v>
       </c>
       <c r="C185" s="4">
-        <v>7602</v>
+        <v>7604</v>
       </c>
       <c r="D185" s="4">
-        <v>36075</v>
+        <v>36186</v>
       </c>
       <c r="E185" s="4">
-        <v>168645</v>
+        <v>169084</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="C186" s="4">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D186" s="4">
-        <v>3216</v>
+        <v>3244</v>
       </c>
       <c r="E186" s="4">
-        <v>6584</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14758</v>
+        <v>14761</v>
       </c>
       <c r="C187" s="4">
         <v>162</v>
       </c>
       <c r="D187" s="4">
-        <v>3818</v>
+        <v>3836</v>
       </c>
       <c r="E187" s="4">
-        <v>18738</v>
+        <v>18759</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>54154</v>
+        <v>54199</v>
       </c>
       <c r="C188" s="4">
         <v>2831</v>
       </c>
       <c r="D188" s="4">
-        <v>20307</v>
+        <v>20358</v>
       </c>
       <c r="E188" s="4">
-        <v>77292</v>
+        <v>77388</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>109783</v>
+        <v>110145</v>
       </c>
       <c r="C189" s="4">
-        <v>9456</v>
+        <v>9487</v>
       </c>
       <c r="D189" s="4">
-        <v>37089</v>
+        <v>37128</v>
       </c>
       <c r="E189" s="4">
-        <v>156328</v>
+        <v>156760</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7844</v>
+        <v>7845</v>
       </c>
       <c r="C190" s="4">
         <v>60</v>
       </c>
       <c r="D190" s="4">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="E190" s="4">
-        <v>10260</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5374</v>
+        <v>5391</v>
       </c>
       <c r="C191" s="4">
         <v>477</v>
       </c>
       <c r="D191" s="4">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="E191" s="4">
-        <v>8793</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>79021</v>
+        <v>79454</v>
       </c>
       <c r="C192" s="4">
-        <v>19261</v>
+        <v>19335</v>
       </c>
       <c r="D192" s="4">
-        <v>33896</v>
+        <v>33958</v>
       </c>
       <c r="E192" s="4">
-        <v>132178</v>
+        <v>132747</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>43</v>
       </c>
       <c r="D193" s="4">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E193" s="4">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C194" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D194" s="4">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="E194" s="4">
-        <v>4285</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8083</v>
+        <v>8098</v>
       </c>
       <c r="C195" s="4">
         <v>726</v>
       </c>
       <c r="D195" s="4">
-        <v>7904</v>
+        <v>7917</v>
       </c>
       <c r="E195" s="4">
-        <v>16713</v>
+        <v>16741</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>12045</v>
+        <v>12081</v>
       </c>
       <c r="C196" s="4">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D196" s="4">
-        <v>91515</v>
+        <v>91627</v>
       </c>
       <c r="E196" s="4">
-        <v>104046</v>
+        <v>104196</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5488</v>
+        <v>5493</v>
       </c>
       <c r="C197" s="4">
         <v>492</v>
       </c>
       <c r="D197" s="4">
-        <v>7487</v>
+        <v>7508</v>
       </c>
       <c r="E197" s="4">
-        <v>13467</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>18173</v>
+        <v>18192</v>
       </c>
       <c r="C199" s="4">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D199" s="4">
-        <v>12586</v>
+        <v>12589</v>
       </c>
       <c r="E199" s="4">
-        <v>31283</v>
+        <v>31306</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>107853</v>
+        <v>108014</v>
       </c>
       <c r="C200" s="4">
-        <v>7616</v>
+        <v>7619</v>
       </c>
       <c r="D200" s="4">
-        <v>18524</v>
+        <v>18624</v>
       </c>
       <c r="E200" s="4">
-        <v>133993</v>
+        <v>134257</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7837</v>
+        <v>7843</v>
       </c>
       <c r="C201" s="4">
         <v>238</v>
       </c>
       <c r="D201" s="4">
-        <v>7011</v>
+        <v>7027</v>
       </c>
       <c r="E201" s="4">
-        <v>15086</v>
+        <v>15108</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>34746</v>
+        <v>34784</v>
       </c>
       <c r="C202" s="4">
         <v>2420</v>
       </c>
       <c r="D202" s="4">
-        <v>9014</v>
+        <v>9038</v>
       </c>
       <c r="E202" s="4">
-        <v>46180</v>
+        <v>46242</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10415</v>
+        <v>10424</v>
       </c>
       <c r="C203" s="4">
         <v>721</v>
       </c>
       <c r="D203" s="4">
-        <v>4837</v>
+        <v>4846</v>
       </c>
       <c r="E203" s="4">
-        <v>15973</v>
+        <v>15991</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9481</v>
+        <v>9487</v>
       </c>
       <c r="C204" s="4">
         <v>279</v>
       </c>
       <c r="D204" s="4">
-        <v>8313</v>
+        <v>8337</v>
       </c>
       <c r="E204" s="4">
-        <v>18073</v>
+        <v>18103</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>29679</v>
+        <v>29728</v>
       </c>
       <c r="C205" s="4">
         <v>2446</v>
       </c>
       <c r="D205" s="4">
-        <v>9789</v>
+        <v>9813</v>
       </c>
       <c r="E205" s="4">
-        <v>41914</v>
+        <v>41987</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>51305</v>
+        <v>51354</v>
       </c>
       <c r="C206" s="4">
-        <v>9719</v>
+        <v>9726</v>
       </c>
       <c r="D206" s="4">
-        <v>41001</v>
+        <v>41142</v>
       </c>
       <c r="E206" s="4">
-        <v>102025</v>
+        <v>102222</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5347</v>
+        <v>5351</v>
       </c>
       <c r="C207" s="4">
         <v>131</v>
       </c>
       <c r="D207" s="4">
-        <v>3903</v>
+        <v>3908</v>
       </c>
       <c r="E207" s="4">
-        <v>9381</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,7 +4573,7 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
@@ -4582,7 +4582,7 @@
         <v>851</v>
       </c>
       <c r="E208" s="4">
-        <v>1925</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>26771</v>
+        <v>26827</v>
       </c>
       <c r="C209" s="4">
         <v>323</v>
       </c>
       <c r="D209" s="4">
-        <v>3306</v>
+        <v>3333</v>
       </c>
       <c r="E209" s="4">
-        <v>30400</v>
+        <v>30483</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C210" s="4">
         <v>92</v>
       </c>
       <c r="D210" s="4">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="E210" s="4">
-        <v>2427</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>19879</v>
+        <v>19906</v>
       </c>
       <c r="C211" s="4">
         <v>1394</v>
       </c>
       <c r="D211" s="4">
-        <v>8913</v>
+        <v>8939</v>
       </c>
       <c r="E211" s="4">
-        <v>30186</v>
+        <v>30239</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,13 +4644,13 @@
         <v>287</v>
       </c>
       <c r="C212" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D212" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E212" s="4">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>277407</v>
+        <v>277633</v>
       </c>
       <c r="C213" s="4">
-        <v>13533</v>
+        <v>13535</v>
       </c>
       <c r="D213" s="4">
-        <v>87462</v>
+        <v>87667</v>
       </c>
       <c r="E213" s="4">
-        <v>378402</v>
+        <v>378835</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>7634</v>
+        <v>7644</v>
       </c>
       <c r="C214" s="4">
         <v>435</v>
       </c>
       <c r="D214" s="4">
-        <v>7744</v>
+        <v>7750</v>
       </c>
       <c r="E214" s="4">
-        <v>15813</v>
+        <v>15829</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>74892</v>
+        <v>74957</v>
       </c>
       <c r="C215" s="4">
         <v>860</v>
       </c>
       <c r="D215" s="4">
-        <v>35211</v>
+        <v>35244</v>
       </c>
       <c r="E215" s="4">
-        <v>110963</v>
+        <v>111061</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="C216" s="4">
         <v>164</v>
       </c>
       <c r="D216" s="4">
-        <v>6654</v>
+        <v>6678</v>
       </c>
       <c r="E216" s="4">
-        <v>12677</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C217" s="4">
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E217" s="4">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="E218" s="4">
-        <v>1343</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E219" s="4">
-        <v>2755</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8055</v>
+        <v>8060</v>
       </c>
       <c r="C220" s="4">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D220" s="4">
-        <v>2086</v>
+        <v>2099</v>
       </c>
       <c r="E220" s="4">
-        <v>10559</v>
+        <v>10579</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2590761</v>
+        <v>2596088</v>
       </c>
       <c r="C221" s="4">
-        <v>112974</v>
+        <v>113021</v>
       </c>
       <c r="D221" s="4">
-        <v>526045</v>
+        <v>528574</v>
       </c>
       <c r="E221" s="4">
-        <v>3229780</v>
+        <v>3237683</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>113738</v>
+        <v>113840</v>
       </c>
       <c r="C222" s="4">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="D222" s="4">
-        <v>129391</v>
+        <v>130535</v>
       </c>
       <c r="E222" s="4">
-        <v>247469</v>
+        <v>248718</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C223" s="4">
         <v>10</v>
       </c>
       <c r="D223" s="4">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E223" s="4">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5792</v>
+        <v>5800</v>
       </c>
       <c r="C224" s="4">
         <v>137</v>
       </c>
       <c r="D224" s="4">
-        <v>3830</v>
+        <v>3838</v>
       </c>
       <c r="E224" s="4">
-        <v>9759</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>56</v>
       </c>
       <c r="D225" s="4">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E225" s="4">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>31796</v>
+        <v>31877</v>
       </c>
       <c r="C226" s="4">
         <v>1419</v>
       </c>
       <c r="D226" s="4">
-        <v>8839</v>
+        <v>8842</v>
       </c>
       <c r="E226" s="4">
-        <v>42054</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>96387</v>
+        <v>96469</v>
       </c>
       <c r="C227" s="4">
-        <v>3042</v>
+        <v>3048</v>
       </c>
       <c r="D227" s="4">
-        <v>110475</v>
+        <v>110975</v>
       </c>
       <c r="E227" s="4">
-        <v>209904</v>
+        <v>210492</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1740656</v>
+        <v>1743734</v>
       </c>
       <c r="C228" s="4">
-        <v>73236</v>
+        <v>73257</v>
       </c>
       <c r="D228" s="4">
-        <v>401108</v>
+        <v>404060</v>
       </c>
       <c r="E228" s="4">
-        <v>2215000</v>
+        <v>2221051</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17641</v>
+        <v>17661</v>
       </c>
       <c r="C229" s="4">
         <v>597</v>
       </c>
       <c r="D229" s="4">
-        <v>7865</v>
+        <v>7884</v>
       </c>
       <c r="E229" s="4">
-        <v>26103</v>
+        <v>26142</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>15916</v>
+        <v>15942</v>
       </c>
       <c r="C230" s="4">
         <v>1084</v>
       </c>
       <c r="D230" s="4">
-        <v>10196</v>
+        <v>10208</v>
       </c>
       <c r="E230" s="4">
-        <v>27196</v>
+        <v>27234</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>15784</v>
+        <v>15802</v>
       </c>
       <c r="C231" s="4">
         <v>2434</v>
       </c>
       <c r="D231" s="4">
-        <v>9170</v>
+        <v>9177</v>
       </c>
       <c r="E231" s="4">
-        <v>27388</v>
+        <v>27413</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C232" s="4">
         <v>101</v>
       </c>
       <c r="D232" s="4">
-        <v>3834</v>
+        <v>3850</v>
       </c>
       <c r="E232" s="4">
-        <v>5095</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>38620</v>
+        <v>38666</v>
       </c>
       <c r="C233" s="4">
         <v>555</v>
       </c>
       <c r="D233" s="4">
-        <v>4547</v>
+        <v>4568</v>
       </c>
       <c r="E233" s="4">
-        <v>43722</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>61738</v>
+        <v>61855</v>
       </c>
       <c r="C234" s="4">
         <v>1347</v>
       </c>
       <c r="D234" s="4">
-        <v>32543</v>
+        <v>32601</v>
       </c>
       <c r="E234" s="4">
-        <v>95628</v>
+        <v>95803</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>31991</v>
+        <v>32039</v>
       </c>
       <c r="C235" s="4">
         <v>2323</v>
       </c>
       <c r="D235" s="4">
-        <v>20351</v>
+        <v>20403</v>
       </c>
       <c r="E235" s="4">
-        <v>54665</v>
+        <v>54765</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>70041</v>
+        <v>70134</v>
       </c>
       <c r="C236" s="4">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="D236" s="4">
-        <v>30446</v>
+        <v>30476</v>
       </c>
       <c r="E236" s="4">
-        <v>105038</v>
+        <v>105162</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>164685</v>
+        <v>164824</v>
       </c>
       <c r="C237" s="4">
         <v>3223</v>
       </c>
       <c r="D237" s="4">
-        <v>44463</v>
+        <v>44634</v>
       </c>
       <c r="E237" s="4">
-        <v>212371</v>
+        <v>212681</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>57472</v>
+        <v>57568</v>
       </c>
       <c r="C238" s="4">
         <v>2311</v>
       </c>
       <c r="D238" s="4">
-        <v>10817</v>
+        <v>10889</v>
       </c>
       <c r="E238" s="4">
-        <v>70600</v>
+        <v>70768</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5584</v>
+        <v>5587</v>
       </c>
       <c r="C239" s="4">
         <v>231</v>
       </c>
       <c r="D239" s="4">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="E239" s="4">
-        <v>7860</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>53237</v>
+        <v>53279</v>
       </c>
       <c r="C240" s="4">
         <v>1995</v>
       </c>
       <c r="D240" s="4">
-        <v>25608</v>
+        <v>25813</v>
       </c>
       <c r="E240" s="4">
-        <v>80840</v>
+        <v>81087</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>501572</v>
+        <v>503713</v>
       </c>
       <c r="C241" s="4">
         <v>7054</v>
       </c>
       <c r="D241" s="4">
-        <v>135281</v>
+        <v>135841</v>
       </c>
       <c r="E241" s="4">
-        <v>643907</v>
+        <v>646608</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>47058</v>
+        <v>47093</v>
       </c>
       <c r="C242" s="4">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="D242" s="4">
-        <v>9993</v>
+        <v>10045</v>
       </c>
       <c r="E242" s="4">
-        <v>59572</v>
+        <v>59661</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2311</v>
+        <v>2322</v>
       </c>
       <c r="C243" s="4">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D243" s="4">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E243" s="4">
-        <v>7223</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>147348</v>
+        <v>147429</v>
       </c>
       <c r="C244" s="4">
-        <v>10227</v>
+        <v>10273</v>
       </c>
       <c r="D244" s="4">
-        <v>64227</v>
+        <v>64696</v>
       </c>
       <c r="E244" s="4">
-        <v>221802</v>
+        <v>222398</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>17051</v>
+        <v>17090</v>
       </c>
       <c r="C245" s="4">
         <v>797</v>
       </c>
       <c r="D245" s="4">
-        <v>22707</v>
+        <v>23057</v>
       </c>
       <c r="E245" s="4">
-        <v>40555</v>
+        <v>40944</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>45292</v>
+        <v>45306</v>
       </c>
       <c r="C246" s="4">
         <v>229</v>
       </c>
       <c r="D246" s="4">
-        <v>8085</v>
+        <v>8125</v>
       </c>
       <c r="E246" s="4">
-        <v>53606</v>
+        <v>53660</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>750978</v>
+        <v>752443</v>
       </c>
       <c r="C247" s="4">
-        <v>31282</v>
+        <v>31294</v>
       </c>
       <c r="D247" s="4">
-        <v>186927</v>
+        <v>187806</v>
       </c>
       <c r="E247" s="4">
-        <v>969187</v>
+        <v>971543</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>51607</v>
+        <v>51749</v>
       </c>
       <c r="C248" s="4">
         <v>1500</v>
       </c>
       <c r="D248" s="4">
-        <v>19289</v>
+        <v>19396</v>
       </c>
       <c r="E248" s="4">
-        <v>72396</v>
+        <v>72645</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C249" s="4">
         <v>72</v>
       </c>
       <c r="D249" s="4">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E249" s="4">
-        <v>2410</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>70533</v>
+        <v>70624</v>
       </c>
       <c r="C250" s="4">
         <v>3919</v>
       </c>
       <c r="D250" s="4">
-        <v>15255</v>
+        <v>15284</v>
       </c>
       <c r="E250" s="4">
-        <v>89707</v>
+        <v>89827</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>27956</v>
+        <v>27998</v>
       </c>
       <c r="C251" s="4">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D251" s="4">
-        <v>15480</v>
+        <v>15524</v>
       </c>
       <c r="E251" s="4">
-        <v>45746</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5327,10 +5327,10 @@
         <v>170</v>
       </c>
       <c r="D252" s="4">
-        <v>1826</v>
+        <v>1839</v>
       </c>
       <c r="E252" s="4">
-        <v>4848</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10275</v>
+        <v>10325</v>
       </c>
       <c r="C253" s="4">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D253" s="4">
-        <v>5377</v>
+        <v>5387</v>
       </c>
       <c r="E253" s="4">
-        <v>16334</v>
+        <v>16395</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18243</v>
+        <v>18254</v>
       </c>
       <c r="C254" s="4">
         <v>158</v>
       </c>
       <c r="D254" s="4">
-        <v>17325</v>
+        <v>17390</v>
       </c>
       <c r="E254" s="4">
-        <v>35726</v>
+        <v>35802</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12733</v>
+        <v>12742</v>
       </c>
       <c r="C255" s="4">
         <v>270</v>
       </c>
       <c r="D255" s="4">
-        <v>2567</v>
+        <v>2574</v>
       </c>
       <c r="E255" s="4">
-        <v>15570</v>
+        <v>15586</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>238102</v>
+        <v>238861</v>
       </c>
       <c r="C256" s="4">
         <v>14355</v>
       </c>
       <c r="D256" s="4">
-        <v>15787</v>
+        <v>15818</v>
       </c>
       <c r="E256" s="4">
-        <v>268244</v>
+        <v>269034</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>37257495</v>
+        <v>37336103</v>
       </c>
       <c r="C257" s="4">
-        <v>1663101</v>
+        <v>1664062</v>
       </c>
       <c r="D257" s="4">
-        <v>9333452</v>
+        <v>9371975</v>
       </c>
       <c r="E257" s="4">
-        <v>48254048</v>
+        <v>48372140</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
